--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="Default test" r:id="rId4" sheetId="2"/>
+    <sheet name="DroomWebAutomationTest(failed)" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -24,37 +24,43 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>1</t>
+    <t>4</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Skipped</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-10T21:40:27 IST</t>
+    <t>2020-08-11T14:25:20 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-10T21:42:17 IST</t>
+    <t>2020-08-11T14:34:09 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>110358 ms</t>
+    <t>528928 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -66,22 +72,111 @@
     <t>Exception</t>
   </si>
   <si>
+    <t>com.droom.automation.droomweb.UserRegistrationTest.registerAsIndividualUser</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2020-08-11T14:30:07 IST</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:30:35 IST</t>
+  </si>
+  <si>
+    <t>27199 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.UserRegistrationTest.registerAsProSeller</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>expected [Proceed] but found []</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:31:01 IST</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:31:33 IST</t>
+  </si>
+  <si>
+    <t>32841 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.UserRegistrationTest.emptyErrorMsgVerificationWhileFillingFormAsIndividualAccount</t>
+  </si>
+  <si>
+    <t>Illegal operation on empty result set.</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:32:05 IST</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:32:21 IST</t>
+  </si>
+  <si>
+    <t>15592 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.UserRegistrationTest.errorMsgVerificationForPasswordWhileRegisterAsIndividualAccount</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:32:45 IST</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:33:17 IST</t>
+  </si>
+  <si>
+    <t>31656 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.UserRegistrationTest.allReadyExistErrorMsgVerificationWhileRegisterAsProSellerAccount</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:33:45 IST</t>
+  </si>
+  <si>
+    <t>23445 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:25:50 IST</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:27:34 IST</t>
+  </si>
+  <si>
+    <t>104444 ms</t>
+  </si>
+  <si>
     <t>com.droom.automation.droomweb.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2020-08-10T21:40:48 IST</t>
-  </si>
-  <si>
-    <t>2020-08-10T21:42:16 IST</t>
-  </si>
-  <si>
-    <t>88021 ms</t>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='₹  6,699']"}
+  (Session info: chrome=84.0.4147.125)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.27', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 84.0.4147.125, chrome: {chromedriverVersion: 83.0.4103.39 (ccbf011cb2d2b..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:57656}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 0c758d84ed2f540cc694a212739afa5c
+*** Element info: {Using=xpath, value=//strong[text()='₹  6,699']}</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:27:58 IST</t>
+  </si>
+  <si>
+    <t>2020-08-11T14:29:46 IST</t>
+  </si>
+  <si>
+    <t>107930 ms</t>
   </si>
 </sst>
 </file>
@@ -107,7 +202,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +247,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,6 +336,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -291,7 +432,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -323,39 +464,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -367,58 +508,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="110.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="141.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="31.125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="C5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>22</v>
+      <c r="D5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="DroomWebAutomationTest(failed)" r:id="rId4" sheetId="2"/>
+    <sheet name="DroomWebAutomationTest" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Category</t>
   </si>
@@ -24,43 +24,40 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>3</t>
+    <t>0</t>
   </si>
   <si>
     <t>Skipped</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>32</t>
+    <t>5</t>
   </si>
   <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-11T14:25:20 IST</t>
+    <t>2020-08-12T21:45:34 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-11T14:34:09 IST</t>
+    <t>2020-08-12T21:48:05 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>528928 ms</t>
+    <t>151147 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -72,7 +69,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.UserRegistrationTest.registerAsIndividualUser</t>
+    <t>com.droom.automation.droomweb.UserLoginTest.franchiseLoginValidation</t>
   </si>
   <si>
     <t>PASS</t>
@@ -81,102 +78,34 @@
     <t/>
   </si>
   <si>
-    <t>2020-08-11T14:30:07 IST</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:30:35 IST</t>
-  </si>
-  <si>
-    <t>27199 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.UserRegistrationTest.registerAsProSeller</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>expected [Proceed] but found []</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:31:01 IST</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:31:33 IST</t>
-  </si>
-  <si>
-    <t>32841 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.UserRegistrationTest.emptyErrorMsgVerificationWhileFillingFormAsIndividualAccount</t>
-  </si>
-  <si>
-    <t>Illegal operation on empty result set.</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:32:05 IST</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:32:21 IST</t>
-  </si>
-  <si>
-    <t>15592 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.UserRegistrationTest.errorMsgVerificationForPasswordWhileRegisterAsIndividualAccount</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:32:45 IST</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:33:17 IST</t>
-  </si>
-  <si>
-    <t>31656 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.UserRegistrationTest.allReadyExistErrorMsgVerificationWhileRegisterAsProSellerAccount</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:33:45 IST</t>
-  </si>
-  <si>
-    <t>23445 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:25:50 IST</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:27:34 IST</t>
-  </si>
-  <si>
-    <t>104444 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='₹  6,699']"}
-  (Session info: chrome=84.0.4147.125)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.27', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 84.0.4147.125, chrome: {chromedriverVersion: 83.0.4103.39 (ccbf011cb2d2b..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:57656}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: 0c758d84ed2f540cc694a212739afa5c
-*** Element info: {Using=xpath, value=//strong[text()='₹  6,699']}</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:27:58 IST</t>
-  </si>
-  <si>
-    <t>2020-08-11T14:29:46 IST</t>
-  </si>
-  <si>
-    <t>107930 ms</t>
+    <t>2020-08-12T21:45:57 IST</t>
+  </si>
+  <si>
+    <t>2020-08-12T21:46:22 IST</t>
+  </si>
+  <si>
+    <t>25300 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseDashboard</t>
+  </si>
+  <si>
+    <t>2020-08-12T21:46:48 IST</t>
+  </si>
+  <si>
+    <t>2020-08-12T21:47:09 IST</t>
+  </si>
+  <si>
+    <t>21595 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrders</t>
+  </si>
+  <si>
+    <t>2020-08-12T21:47:30 IST</t>
+  </si>
+  <si>
+    <t>34932 ms</t>
   </si>
 </sst>
 </file>
@@ -202,7 +131,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,16 +176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -308,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,18 +260,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -360,18 +267,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -432,7 +327,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,39 +359,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -508,178 +403,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="141.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="89.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.53515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="E3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="F3" s="36" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="DroomWebAutomationTest" r:id="rId4" sheetId="2"/>
+    <sheet name="Default test" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Failed</t>
@@ -39,25 +39,22 @@
     <t>Total</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-12T21:45:34 IST</t>
+    <t>2020-08-13T22:22:35 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-12T21:48:05 IST</t>
+    <t>2020-08-13T22:25:57 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>151147 ms</t>
+    <t>202106 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -69,7 +66,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.UserLoginTest.franchiseLoginValidation</t>
+    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsFacilityGermShield</t>
   </si>
   <si>
     <t>PASS</t>
@@ -78,34 +75,46 @@
     <t/>
   </si>
   <si>
-    <t>2020-08-12T21:45:57 IST</t>
-  </si>
-  <si>
-    <t>2020-08-12T21:46:22 IST</t>
-  </si>
-  <si>
-    <t>25300 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseDashboard</t>
-  </si>
-  <si>
-    <t>2020-08-12T21:46:48 IST</t>
-  </si>
-  <si>
-    <t>2020-08-12T21:47:09 IST</t>
-  </si>
-  <si>
-    <t>21595 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrders</t>
-  </si>
-  <si>
-    <t>2020-08-12T21:47:30 IST</t>
-  </si>
-  <si>
-    <t>34932 ms</t>
+    <t>2020-08-13T22:22:53 IST</t>
+  </si>
+  <si>
+    <t>2020-08-13T22:23:29 IST</t>
+  </si>
+  <si>
+    <t>36591 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsElevatorGermShield</t>
+  </si>
+  <si>
+    <t>2020-08-13T22:23:42 IST</t>
+  </si>
+  <si>
+    <t>2020-08-13T22:24:16 IST</t>
+  </si>
+  <si>
+    <t>33924 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsJumpstartService</t>
+  </si>
+  <si>
+    <t>2020-08-13T22:24:33 IST</t>
+  </si>
+  <si>
+    <t>2020-08-13T22:25:05 IST</t>
+  </si>
+  <si>
+    <t>32165 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsBigTransport</t>
+  </si>
+  <si>
+    <t>2020-08-13T22:25:22 IST</t>
+  </si>
+  <si>
+    <t>34982 ms</t>
   </si>
 </sst>
 </file>
@@ -227,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -253,6 +262,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -327,7 +342,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.89453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -367,31 +382,31 @@
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -403,98 +418,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="89.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="114.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.5078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.89453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -42,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-13T22:22:35 IST</t>
+    <t>2020-08-19T20:18:39 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-13T22:25:57 IST</t>
+    <t>2020-08-19T20:21:52 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>202106 ms</t>
+    <t>193143 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -66,7 +66,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsFacilityGermShield</t>
+    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsCar</t>
   </si>
   <si>
     <t>PASS</t>
@@ -75,46 +75,46 @@
     <t/>
   </si>
   <si>
-    <t>2020-08-13T22:22:53 IST</t>
-  </si>
-  <si>
-    <t>2020-08-13T22:23:29 IST</t>
-  </si>
-  <si>
-    <t>36591 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsElevatorGermShield</t>
-  </si>
-  <si>
-    <t>2020-08-13T22:23:42 IST</t>
-  </si>
-  <si>
-    <t>2020-08-13T22:24:16 IST</t>
-  </si>
-  <si>
-    <t>33924 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsJumpstartService</t>
-  </si>
-  <si>
-    <t>2020-08-13T22:24:33 IST</t>
-  </si>
-  <si>
-    <t>2020-08-13T22:25:05 IST</t>
-  </si>
-  <si>
-    <t>32165 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.FranchiseTest.ValidatingFranchiseMyOrdersAsBigTransport</t>
-  </si>
-  <si>
-    <t>2020-08-13T22:25:22 IST</t>
-  </si>
-  <si>
-    <t>34982 ms</t>
+    <t>2020-08-19T20:18:58 IST</t>
+  </si>
+  <si>
+    <t>2020-08-19T20:19:29 IST</t>
+  </si>
+  <si>
+    <t>31576 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-08-19T20:19:47 IST</t>
+  </si>
+  <si>
+    <t>2020-08-19T20:20:18 IST</t>
+  </si>
+  <si>
+    <t>30972 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsScooter</t>
+  </si>
+  <si>
+    <t>2020-08-19T20:20:36 IST</t>
+  </si>
+  <si>
+    <t>2020-08-19T20:21:07 IST</t>
+  </si>
+  <si>
+    <t>30920 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-08-19T20:21:22 IST</t>
+  </si>
+  <si>
+    <t>30307 ms</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,11 +424,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="114.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="140.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.89453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.5078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="Default test" r:id="rId4" sheetId="2"/>
+    <sheet name="DroomWebAutomationTest(failed)" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>4</t>
+    <t>9</t>
   </si>
   <si>
     <t>Failed</t>
@@ -39,22 +39,25 @@
     <t>Total</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-19T20:18:39 IST</t>
+    <t>2020-08-24T21:29:03 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-19T20:21:52 IST</t>
+    <t>2020-08-24T21:44:58 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>193143 ms</t>
+    <t>954144 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -66,7 +69,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsCar</t>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldElevatorService</t>
   </si>
   <si>
     <t>PASS</t>
@@ -75,46 +78,109 @@
     <t/>
   </si>
   <si>
-    <t>2020-08-19T20:18:58 IST</t>
-  </si>
-  <si>
-    <t>2020-08-19T20:19:29 IST</t>
-  </si>
-  <si>
-    <t>31576 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsMotorCycleOrBike</t>
-  </si>
-  <si>
-    <t>2020-08-19T20:19:47 IST</t>
-  </si>
-  <si>
-    <t>2020-08-19T20:20:18 IST</t>
-  </si>
-  <si>
-    <t>30972 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsScooter</t>
-  </si>
-  <si>
-    <t>2020-08-19T20:20:36 IST</t>
-  </si>
-  <si>
-    <t>2020-08-19T20:21:07 IST</t>
-  </si>
-  <si>
-    <t>30920 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsTaxi</t>
-  </si>
-  <si>
-    <t>2020-08-19T20:21:22 IST</t>
-  </si>
-  <si>
-    <t>30307 ms</t>
+    <t>2020-08-24T21:29:15 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:30:55 IST</t>
+  </si>
+  <si>
+    <t>100159 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForOtherFacility</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:31:06 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:32:48 IST</t>
+  </si>
+  <si>
+    <t>102170 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsHatchback</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:34:00 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:36:06 IST</t>
+  </si>
+  <si>
+    <t>126112 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsSedan</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:36:20 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:37:40 IST</t>
+  </si>
+  <si>
+    <t>80384 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:37:52 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:39:10 IST</t>
+  </si>
+  <si>
+    <t>77846 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsPremiumBike</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:39:21 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:40:42 IST</t>
+  </si>
+  <si>
+    <t>81331 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:40:53 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:42:17 IST</t>
+  </si>
+  <si>
+    <t>84322 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForHomeAsFarmhouse</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:42:28 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:43:43 IST</t>
+  </si>
+  <si>
+    <t>74963 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForOfficeAsHighRiseBuilding</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:43:54 IST</t>
+  </si>
+  <si>
+    <t>2020-08-24T21:44:57 IST</t>
+  </si>
+  <si>
+    <t>62321 ms</t>
   </si>
 </sst>
 </file>
@@ -236,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -262,6 +328,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -342,7 +438,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.89453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -382,31 +478,31 @@
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -418,118 +514,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="140.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="139.22265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.89453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.5078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="DroomWebAutomationTest(failed)" r:id="rId4" sheetId="2"/>
+    <sheet name="Default test" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Category</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>9</t>
+    <t>12</t>
   </si>
   <si>
     <t>Failed</t>
@@ -39,25 +39,22 @@
     <t>Total</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-24T21:29:03 IST</t>
+    <t>2020-08-28T20:27:29 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-24T21:44:58 IST</t>
+    <t>2020-08-28T20:32:53 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>954144 ms</t>
+    <t>324479 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -69,7 +66,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldElevatorService</t>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsCar</t>
   </si>
   <si>
     <t>PASS</t>
@@ -78,109 +75,142 @@
     <t/>
   </si>
   <si>
-    <t>2020-08-24T21:29:15 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:30:55 IST</t>
-  </si>
-  <si>
-    <t>100159 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForOtherFacility</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:31:06 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:32:48 IST</t>
-  </si>
-  <si>
-    <t>102170 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsHatchback</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:34:00 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:36:06 IST</t>
-  </si>
-  <si>
-    <t>126112 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsSedan</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:36:20 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:37:40 IST</t>
-  </si>
-  <si>
-    <t>80384 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:37:52 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:39:10 IST</t>
-  </si>
-  <si>
-    <t>77846 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsPremiumBike</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:39:21 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:40:42 IST</t>
-  </si>
-  <si>
-    <t>81331 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:40:53 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:42:17 IST</t>
-  </si>
-  <si>
-    <t>84322 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForHomeAsFarmhouse</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:42:28 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:43:43 IST</t>
-  </si>
-  <si>
-    <t>74963 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForOfficeAsHighRiseBuilding</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:43:54 IST</t>
-  </si>
-  <si>
-    <t>2020-08-24T21:44:57 IST</t>
-  </si>
-  <si>
-    <t>62321 ms</t>
+    <t>2020-08-28T20:27:41 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:27:58 IST</t>
+  </si>
+  <si>
+    <t>16627 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsCar</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:28:11 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:28:26 IST</t>
+  </si>
+  <si>
+    <t>15245 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsCar</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:28:39 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:28:54 IST</t>
+  </si>
+  <si>
+    <t>14333 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:29:06 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:29:21 IST</t>
+  </si>
+  <si>
+    <t>15116 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:29:33 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:29:48 IST</t>
+  </si>
+  <si>
+    <t>15076 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:30:00 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:30:15 IST</t>
+  </si>
+  <si>
+    <t>15194 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsScooter</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:30:27 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:30:42 IST</t>
+  </si>
+  <si>
+    <t>15289 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsScooter</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:30:54 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:31:09 IST</t>
+  </si>
+  <si>
+    <t>14639 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsScooter</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:31:20 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:31:34 IST</t>
+  </si>
+  <si>
+    <t>14411 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:31:46 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:32:00 IST</t>
+  </si>
+  <si>
+    <t>14431 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:32:12 IST</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:32:27 IST</t>
+  </si>
+  <si>
+    <t>14724 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-08-28T20:32:38 IST</t>
+  </si>
+  <si>
+    <t>14339 ms</t>
   </si>
 </sst>
 </file>
@@ -302,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -328,6 +358,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -438,7 +486,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,31 +526,31 @@
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -514,218 +562,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="139.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="195.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.89453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.89453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.15234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="32.27734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="32.27734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="F6" s="54" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="E7" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="F7" s="60" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="64" t="s">
+      <c r="E8" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="F8" s="66" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="70" t="s">
+      <c r="E9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="F9" s="72" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="E10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="F10" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="78" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="79" t="s">
         <v>55</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="Default test" r:id="rId4" sheetId="2"/>
+    <sheet name="DroomWebAutomationTest(failed)" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="233">
   <si>
     <t>Category</t>
   </si>
@@ -24,37 +24,43 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>12</t>
+    <t>47</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Skipped</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-08-28T20:27:29 IST</t>
+    <t>2020-09-01T18:18:59 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-08-28T20:32:53 IST</t>
+    <t>2020-09-01T19:10:28 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>324479 ms</t>
+    <t>3089412 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -66,151 +72,674 @@
     <t>Exception</t>
   </si>
   <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldElevatorService</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  899']"}
+  (Session info: chrome=85.0.4183.83)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.49', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:51682}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: be01272ee81093cc18316d24be52e859
+*** Element info: {Using=xpath, value=//strong[text()='?  899']}</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:36:15 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:37:21 IST</t>
+  </si>
+  <si>
+    <t>66174 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOtherFacility</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2020-09-01T18:37:36 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:38:47 IST</t>
+  </si>
+  <si>
+    <t>71480 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsHatchback</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,179']"}
+  (Session info: chrome=85.0.4183.83)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.49', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:52355}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 5118f5f218706343f9800352bb8a8345
+*** Element info: {Using=xpath, value=//strong[text()='?  1,179']}</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:39:02 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:40:11 IST</t>
+  </si>
+  <si>
+    <t>68850 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsSedan</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:40:28 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:41:24 IST</t>
+  </si>
+  <si>
+    <t>56455 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:41:37 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:42:40 IST</t>
+  </si>
+  <si>
+    <t>63033 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsPremiumBike</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:42:54 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:43:45 IST</t>
+  </si>
+  <si>
+    <t>51757 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  6,699']"}
+  (Session info: chrome=85.0.4183.83)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.49', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:53555}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 86eed63acf3b33f019da93fa93ebfdd2
+*** Element info: {Using=xpath, value=//strong[text()='?  6,699']}</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:43:58 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:45:04 IST</t>
+  </si>
+  <si>
+    <t>66332 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsIndependent</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:45:20 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:46:19 IST</t>
+  </si>
+  <si>
+    <t>59438 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsBungalow</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:46:32 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:47:31 IST</t>
+  </si>
+  <si>
+    <t>58931 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsFlat</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:47:43 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:48:42 IST</t>
+  </si>
+  <si>
+    <t>58134 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsVilla</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:48:55 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:49:56 IST</t>
+  </si>
+  <si>
+    <t>61307 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsPenthouse</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:50:10 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:51:10 IST</t>
+  </si>
+  <si>
+    <t>59550 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsFarmhouse</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:51:28 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:52:31 IST</t>
+  </si>
+  <si>
+    <t>62562 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOfficeAsIndependentBuilding</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:52:44 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:53:36 IST</t>
+  </si>
+  <si>
+    <t>52077 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOfficeAsHighRiseBuilding</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:53:55 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:54:54 IST</t>
+  </si>
+  <si>
+    <t>58491 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOfficeAsCoWorkingSpace</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:55:06 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:55:57 IST</t>
+  </si>
+  <si>
+    <t>51245 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHeavyTransportAsPlane</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:56:12 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:57:22 IST</t>
+  </si>
+  <si>
+    <t>69916 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHeavyTransportAsHelicopter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:57:35 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:58:44 IST</t>
+  </si>
+  <si>
+    <t>69506 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHeavyTransportAsTrain</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:58:57 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:59:57 IST</t>
+  </si>
+  <si>
+    <t>59577 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getSiteFranchiseAsUpFrontPaymentForThreeMonth</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:00:10 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:01:58 IST</t>
+  </si>
+  <si>
+    <t>108058 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getSiteFranchiseAsUpFrontPaymentForSixMonth</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:02:12 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:03:52 IST</t>
+  </si>
+  <si>
+    <t>99538 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getSiteFranchiseAsEMIForOneMonth</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:04:04 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:05:47 IST</t>
+  </si>
+  <si>
+    <t>102787 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getSiteFranchiseAsEMIForSixMonth</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:06:03 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:07:44 IST</t>
+  </si>
+  <si>
+    <t>100106 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getEnterpriseFranchiseAsUpFrontPaymentForOneMonth</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:07:59 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:09:39 IST</t>
+  </si>
+  <si>
+    <t>100760 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.RegisteringBuyerAsAutomobileGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-01T19:09:54 IST</t>
+  </si>
+  <si>
+    <t>33567 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.UserRegistrationTest.registerAsProSeller</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:19:34 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:20:14 IST</t>
+  </si>
+  <si>
+    <t>40202 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.UserRegistrationTest.emptyErrorMsgVerificationWhileFillingFormAsIndividualAccount</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:20:29 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:21:09 IST</t>
+  </si>
+  <si>
+    <t>40198 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.UserRegistrationTest.allReadyExistErrorMsgVerificationWhileRegisterAsProSellerAccount</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:21:22 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:21:34 IST</t>
+  </si>
+  <si>
+    <t>12393 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsNewCar</t>
+  </si>
+  <si>
+    <t>Cannot locate element with text: Mahindra
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.49', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: driver.version: unknown</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:21:49 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:22:25 IST</t>
+  </si>
+  <si>
+    <t>36091 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsUsedMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:22:39 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:23:14 IST</t>
+  </si>
+  <si>
+    <t>34768 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsUsedScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:23:26 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:24:00 IST</t>
+  </si>
+  <si>
+    <t>34225 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewCar</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:24:12 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:24:48 IST</t>
+  </si>
+  <si>
+    <t>36001 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:25:04 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:25:36 IST</t>
+  </si>
+  <si>
+    <t>31345 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:25:50 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:26:21 IST</t>
+  </si>
+  <si>
+    <t>30646 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:26:39 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:27:13 IST</t>
+  </si>
+  <si>
+    <t>34060 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithAutoloanAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:27:30 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:27:54 IST</t>
+  </si>
+  <si>
+    <t>23503 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithAutoloanAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:28:12 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:28:32 IST</t>
+  </si>
+  <si>
+    <t>19979 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:28:50 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:29:10 IST</t>
+  </si>
+  <si>
+    <t>19258 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:29:22 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:29:41 IST</t>
+  </si>
+  <si>
+    <t>19001 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:29:59 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:30:19 IST</t>
+  </si>
+  <si>
+    <t>19568 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRegistrationTransferServiceAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:30:34 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:30:47 IST</t>
+  </si>
+  <si>
+    <t>12894 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRepairAndMaintenanceAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:31:01 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:31:15 IST</t>
+  </si>
+  <si>
+    <t>13421 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:31:31 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:31:45 IST</t>
+  </si>
+  <si>
+    <t>13757 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:32:00 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:32:14 IST</t>
+  </si>
+  <si>
+    <t>13683 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:32:31 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:32:45 IST</t>
+  </si>
+  <si>
+    <t>14026 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:33:02 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:33:16 IST</t>
+  </si>
+  <si>
+    <t>13404 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:33:31 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:33:44 IST</t>
+  </si>
+  <si>
+    <t>13340 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:33:58 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:34:12 IST</t>
+  </si>
+  <si>
+    <t>13975 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:34:25 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:34:39 IST</t>
+  </si>
+  <si>
+    <t>13248 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:34:53 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:35:06 IST</t>
+  </si>
+  <si>
+    <t>12806 ms</t>
+  </si>
+  <si>
     <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsCar</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2020-08-28T20:27:41 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:27:58 IST</t>
-  </si>
-  <si>
-    <t>16627 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsCar</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:28:11 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:28:26 IST</t>
-  </si>
-  <si>
-    <t>15245 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsCar</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:28:39 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:28:54 IST</t>
-  </si>
-  <si>
-    <t>14333 ms</t>
+    <t>2020-09-01T18:35:20 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:35:33 IST</t>
+  </si>
+  <si>
+    <t>13291 ms</t>
   </si>
   <si>
     <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsMotorCycleOrBike</t>
   </si>
   <si>
-    <t>2020-08-28T20:29:06 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:29:21 IST</t>
-  </si>
-  <si>
-    <t>15116 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsMotorCycleOrBike</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:29:33 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:29:48 IST</t>
-  </si>
-  <si>
-    <t>15076 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsMotorCycleOrBike</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:30:00 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:30:15 IST</t>
-  </si>
-  <si>
-    <t>15194 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsScooter</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:30:27 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:30:42 IST</t>
-  </si>
-  <si>
-    <t>15289 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsScooter</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:30:54 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:31:09 IST</t>
-  </si>
-  <si>
-    <t>14639 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsScooter</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:31:20 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:31:34 IST</t>
-  </si>
-  <si>
-    <t>14411 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsTaxi</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:31:46 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:32:00 IST</t>
-  </si>
-  <si>
-    <t>14431 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsTaxi</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:32:12 IST</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:32:27 IST</t>
-  </si>
-  <si>
-    <t>14724 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsTaxi</t>
-  </si>
-  <si>
-    <t>2020-08-28T20:32:38 IST</t>
-  </si>
-  <si>
-    <t>14339 ms</t>
+    <t>2020-09-01T18:35:47 IST</t>
+  </si>
+  <si>
+    <t>2020-09-01T18:36:00 IST</t>
+  </si>
+  <si>
+    <t>12813 ms</t>
   </si>
 </sst>
 </file>
@@ -236,7 +765,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +800,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -332,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -365,67 +904,307 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -486,7 +1265,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,39 +1297,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -562,278 +1341,1078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="195.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="204.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="32.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.27734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="67" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="73" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="79" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="85" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="91" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="126" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="138" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="156" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="161" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="162" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="166" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="167" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="168" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="169" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="174" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="179" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="180" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="184" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="186" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="187" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="188" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="190" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="191" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="192" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="193" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="195" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="196" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="197" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="198" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="199" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="200" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="202" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="203" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="204" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="205" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="206" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="208" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="209" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="210" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="211" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="212" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="213" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="214" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="216" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="217" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="220" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="221" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="222" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="223" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="224" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="225" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="226" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="227" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="228" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="229" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="232" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="233" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="234" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="235" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="238" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="239" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="240" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="241" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="243" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="244" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="245" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="246" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="247" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="249" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="250" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="251" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="252" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="253" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="254" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="255" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="256" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="257" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="258" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="259" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="261" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="262" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="263" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="264" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="265" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="266" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="267" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="268" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="269" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="270" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="271" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="272" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="273" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="274" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="275" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="276" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="277" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="278" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="279" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="280" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="281" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="282" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="283" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="284" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="285" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="286" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="287" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="288" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="290" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="291" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="292" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="293" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="294" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="295" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="296" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="297" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="298" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="299" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="300" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="301" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="302" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="303" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="304" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="305" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="306" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="307" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="308" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="309" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="310" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="311" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="312" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="313" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="314" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="315" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="316" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="317" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="318" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="319" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="320" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="321" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="322" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="323" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="324" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="325" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="327" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="328" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="329" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="330" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="331" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="332" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="333" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="334" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="335" t="s">
+        <v>231</v>
+      </c>
+      <c r="F53" s="336" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="168">
   <si>
     <t>Category</t>
   </si>
@@ -24,43 +24,43 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>6</t>
+    <t>30</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Skipped</t>
   </si>
   <si>
-    <t>0</t>
+    <t>2</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>91</t>
+    <t>99</t>
   </si>
   <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-09-09T12:44:58 IST</t>
+    <t>2020-09-10T11:26:52 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-09-09T12:59:04 IST</t>
+    <t>2020-09-10T11:53:26 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>846652 ms</t>
+    <t>1593589 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -72,7 +72,25 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.CreateListingTest.createNormalListingAsLoggedInUser</t>
+    <t>com.droom.automation.droomweb.droomweb_prod.CreateListingTest.createPremiumListingAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:28:19 IST</t>
+  </si>
+  <si>
+    <t>0 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.CreateListingTest.createConciergeListingAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:28:25 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewTaxi</t>
   </si>
   <si>
     <t>PASS</t>
@@ -81,102 +99,197 @@
     <t/>
   </si>
   <si>
-    <t>2020-09-09T12:45:15 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:47:10 IST</t>
-  </si>
-  <si>
-    <t>115969 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.CreateListingTest.createPremiumListingAsLoggedInUser</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:47:24 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:49:23 IST</t>
-  </si>
-  <si>
-    <t>119000 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.CreateListingTest.createConciergeListingAsLoggedInUser</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:49:39 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:51:29 IST</t>
-  </si>
-  <si>
-    <t>110406 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedCar</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:51:43 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:52:22 IST</t>
-  </si>
-  <si>
-    <t>38582 ms</t>
+    <t>2020-09-10T11:28:33 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:29:10 IST</t>
+  </si>
+  <si>
+    <t>36642 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedScooter</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:29:20 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:29:56 IST</t>
+  </si>
+  <si>
+    <t>35683 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRegistrationTransferServiceAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:30:06 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:30:22 IST</t>
+  </si>
+  <si>
+    <t>15669 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:30:31 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:30:47 IST</t>
+  </si>
+  <si>
+    <t>15890 ms</t>
   </si>
   <si>
     <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldServiceViaHomePageAsLoggedInUser</t>
   </si>
   <si>
-    <t>2020-09-09T12:57:08 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:58:02 IST</t>
-  </si>
-  <si>
-    <t>54024 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.SearchFeatureTest.serachForVehicleValidationAsLoggedInUser</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[@id='cart_add']//span"}
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[@id='proceed-to-checkout']"}
   (Session info: chrome=85.0.4183.83)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'LAPTOP-64JMFN9V', ip: '192.168.0.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:58480}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: 6c7d338c5ea7df4673ceb30dab680761
-*** Element info: {Using=xpath, value=//button[@id='cart_add']//span}</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:52:34 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:53:35 IST</t>
-  </si>
-  <si>
-    <t>60276 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.SearchFeatureTest.serachForBikeValidationAsLoggedInUser</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //img[@alt='Royal Enfield Himalayan 410cc 2016'] (tried for 60 second(s) with 500 milliseconds interval)</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:53:48 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:55:06 IST</t>
-  </si>
-  <si>
-    <t>78536 ms</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63217}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 4df5115331a694b000aded1a6ef03c8a
+*** Element info: {Using=xpath, value=//a[@id='proceed-to-checkout']}</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:32:18 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:33:19 IST</t>
+  </si>
+  <si>
+    <t>61339 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldElevatorService</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:33:30 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:34:21 IST</t>
+  </si>
+  <si>
+    <t>50987 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsHatchback</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:34:31 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:35:21 IST</t>
+  </si>
+  <si>
+    <t>49806 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsSedan</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:35:30 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:36:27 IST</t>
+  </si>
+  <si>
+    <t>56688 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='₹  599']"}
+  (Session info: chrome=85.0.4183.83)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '192.168.0.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63648}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: ce974ae4795cb357810ddcab3e4fb9e6
+*** Element info: {Using=xpath, value=//strong[text()='₹  599']}</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:36:37 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:37:42 IST</t>
+  </si>
+  <si>
+    <t>65611 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsPremiumBike</t>
+  </si>
+  <si>
+    <t>did not expect to find [true] but found [false]</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:39:03 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:40:00 IST</t>
+  </si>
+  <si>
+    <t>57026 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForHomeAsBungalow</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:40:11 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:41:10 IST</t>
+  </si>
+  <si>
+    <t>59301 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForHomeAsPenthouse</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:41:20 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:42:19 IST</t>
+  </si>
+  <si>
+    <t>58509 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForHomeAsFarmhouse</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:42:29 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:43:25 IST</t>
+  </si>
+  <si>
+    <t>55838 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForOfficeAsHighRiseBuilding</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:43:35 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:44:26 IST</t>
+  </si>
+  <si>
+    <t>50924 ms</t>
   </si>
   <si>
     <t>com.droom.automation.droomweb.droomweb_prod.SearchFeatureTest.serachForVehicleValidation</t>
@@ -188,30 +301,246 @@
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'LAPTOP-64JMFN9V', ip: '192.168.0.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:58695}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: 5620bff4fa4888acd489c603b5d66686
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.83, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63104}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 49f844485c9a8663363f76a71439927b
 *** Element info: {Using=xpath, value=//a[text()='Continue to Addresses']}</t>
   </si>
   <si>
-    <t>2020-09-09T12:55:18 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:56:56 IST</t>
-  </si>
-  <si>
-    <t>97700 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.getSiteFranchiseAsUpFrontPaymentForSixMonth</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:58:15 IST</t>
-  </si>
-  <si>
-    <t>2020-09-09T12:59:03 IST</t>
-  </si>
-  <si>
-    <t>47694 ms</t>
+    <t>2020-09-10T11:30:56 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:32:08 IST</t>
+  </si>
+  <si>
+    <t>71933 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.getEnterpriseFranchiseAsUpFrontPaymentForOneMonth</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:44:36 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:45:08 IST</t>
+  </si>
+  <si>
+    <t>32273 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.getEnterpriseFranchiseAsUpFrontPaymentForThreeMonth</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:45:17 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:45:49 IST</t>
+  </si>
+  <si>
+    <t>32192 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.getEnterpriseFranchiseAsUpFrontPaymentForSixMonth</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:45:59 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:46:31 IST</t>
+  </si>
+  <si>
+    <t>31152 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseDashboard</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:46:40 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:46:50 IST</t>
+  </si>
+  <si>
+    <t>9657 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseMyOrdersAsAutomobileGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:46:59 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:47:28 IST</t>
+  </si>
+  <si>
+    <t>28336 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseMyOrdersAsFacilityGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:47:37 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:48:09 IST</t>
+  </si>
+  <si>
+    <t>31984 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseMyOrdersAsElevatorGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:48:19 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:48:42 IST</t>
+  </si>
+  <si>
+    <t>22962 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseMyOrdersAsJumpstartService</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:48:52 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:49:18 IST</t>
+  </si>
+  <si>
+    <t>26735 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseMyOrdersAsBigTransport</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:49:29 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:49:55 IST</t>
+  </si>
+  <si>
+    <t>26276 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsAutomobileGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:50:04 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:50:39 IST</t>
+  </si>
+  <si>
+    <t>34146 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsFacilityGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:50:48 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:51:22 IST</t>
+  </si>
+  <si>
+    <t>34182 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsElevatorGermShield</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:51:32 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:52:03 IST</t>
+  </si>
+  <si>
+    <t>31355 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsJumpstartService</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:52:13 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:52:41 IST</t>
+  </si>
+  <si>
+    <t>27660 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsBigTransport</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:52:51 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:53:25 IST</t>
+  </si>
+  <si>
+    <t>34253 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.UserLoginTest.inValidIDloginAsIndividualUserViaPassword</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:02 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:08 IST</t>
+  </si>
+  <si>
+    <t>5800 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.UserLoginTest.inValidPasswordloginAsIndividualUserViaPassword</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:19 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:25 IST</t>
+  </si>
+  <si>
+    <t>5194 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.UserLoginTest.loginAsProSellerViaPassword</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:34 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:43 IST</t>
+  </si>
+  <si>
+    <t>9434 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.UserLoginTest.inValidLoginIDAsProSellerViaPassword</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:52 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:27:58 IST</t>
+  </si>
+  <si>
+    <t>5565 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_prod.UserLoginTest.inValidLoginPasswordAsProSellerViaPassword</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:28:07 IST</t>
+  </si>
+  <si>
+    <t>2020-09-10T11:28:13 IST</t>
+  </si>
+  <si>
+    <t>5905 ms</t>
   </si>
 </sst>
 </file>
@@ -343,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -370,8 +699,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -406,6 +739,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -413,6 +764,144 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -479,7 +968,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -555,18 +1044,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="147.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="191.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.89453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.89453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.15234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,177 +1085,711 @@
       <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="29" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="B3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="31" t="s">
+      <c r="E3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="B4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="37" t="s">
+      <c r="E4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="B5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="F5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="47" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="B6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
+      <c r="E6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="F6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="53" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="B7" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="55" t="s">
+      <c r="E7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="F7" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="57" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="B8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="C8" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="61" t="s">
+      <c r="E8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="F8" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="64" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="B9" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="E9" s="69" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="67" t="s">
+      <c r="F9" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="69" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="B10" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E10" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F10" s="76" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="73" t="s">
+    <row r="11">
+      <c r="A11" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="B11" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E11" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F11" s="82" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="112" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="142" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="148" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="149" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="160" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="164" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="166" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="170" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="171" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="172" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="176" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="178" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="183" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="184" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="185" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="186" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="189" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="190" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="191" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="194" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="195" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="196" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="200" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="201" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="202" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="203" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="204" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="206" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="207" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="208" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="209" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="212" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="213" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="214" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="216" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="218" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="219" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="220" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="221" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="222" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="224" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="225" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="226" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="227" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="230" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="231" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="232" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="233" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="234" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="235" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="236" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="237" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="238" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelstatusReport.xlsx
+++ b/ExcelstatusReport.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="Test(failed)(failed)" r:id="rId4" sheetId="2"/>
+    <sheet name="DroomWebAutomationTest(failed)" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="395">
   <si>
     <t>Category</t>
   </si>
@@ -24,43 +24,43 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>5</t>
+    <t>19</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>3</t>
+    <t>30</t>
   </si>
   <si>
     <t>Skipped</t>
   </si>
   <si>
-    <t>6</t>
+    <t>72</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>80</t>
+    <t>158</t>
   </si>
   <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-09-11T18:14:20 IST</t>
+    <t>2020-09-14T22:53:52 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-09-11T18:23:44 IST</t>
+    <t>2020-09-15T00:12:37 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>564244 ms</t>
+    <t>4724519 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -72,7 +72,7 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewTaxi</t>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.registerForFranchise</t>
   </si>
   <si>
     <t>PASS</t>
@@ -81,176 +81,1349 @@
     <t/>
   </si>
   <si>
-    <t>2020-09-11T18:18:08 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:18:48 IST</t>
-  </si>
-  <si>
-    <t>39113 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldServiceViaHomePageAsLoggedInUser</t>
+    <t>2020-09-15T00:06:33 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:06:52 IST</t>
+  </si>
+  <si>
+    <t>18877 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.paymentAmountForSignUpAsFranchise</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:07:03 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:07:45 IST</t>
+  </si>
+  <si>
+    <t>41905 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.paymentAmountForBookingCityAsFranchise</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:07:56 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:09:19 IST</t>
+  </si>
+  <si>
+    <t>82555 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getSiteFranchiseAsUpFrontPaymentForOneMonth</t>
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>did not expect to find [true] but found [false]</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:09:30 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:10:39 IST</t>
+  </si>
+  <si>
+    <t>69301 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.FranchiseTest.getEnterpriseFranchiseAsUpFrontPaymentForSixMonth</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:10:51 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:12:36 IST</t>
+  </si>
+  <si>
+    <t>104512 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldServiceViaHomePageAsLoggedInUser</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[@id='proceed-to-checkout']"}
   (Session info: chrome=85.0.4183.102)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'LAPTOP-64JMFN9V', ip: '192.168.0.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:60663}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: c36b67b9258f7ea1cce9f2037443d519
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63449}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 038beb95bec62e03e777687146180312
 *** Element info: {Using=xpath, value=//a[@id='proceed-to-checkout']}</t>
   </si>
   <si>
-    <t>2020-09-11T18:18:59 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:20:12 IST</t>
-  </si>
-  <si>
-    <t>72628 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldElevatorService</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"(//a[text()='My Account'])[2]"}
+    <t>2020-09-14T23:36:51 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:37:53 IST</t>
+  </si>
+  <si>
+    <t>61530 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldElevatorService</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  899']"}
   (Session info: chrome=85.0.4183.102)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'LAPTOP-64JMFN9V', ip: '192.168.0.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:60837}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: 2401336bae5177d293bc22ab5f32c847
-*** Element info: {Using=xpath, value=(//a[text()='My Account'])[2]}</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:20:26 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:21:02 IST</t>
-  </si>
-  <si>
-    <t>36341 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsHatchback</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:21:13 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:22:14 IST</t>
-  </si>
-  <si>
-    <t>61865 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsSedan</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63577}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: a70a73d18a7b3bbbc96d29f1b4d20d1c
+*** Element info: {Using=xpath, value=//strong[text()='?  899']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:38:04 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:39:09 IST</t>
+  </si>
+  <si>
+    <t>64405 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOtherFacility</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[text()='?1500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63719}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 83e026fc37e3dab167e87b437f5b564a
+*** Element info: {Using=xpath, value=//span[text()='?1500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:39:20 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:40:24 IST</t>
+  </si>
+  <si>
+    <t>63735 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsHatchback</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:40:35 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:41:00 IST</t>
+  </si>
+  <si>
+    <t>25229 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsSedan</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,649']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:63948}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: b7550bf0e21781035529b5a1ace94044
+*** Element info: {Using=xpath, value=//strong[text()='?  1,649']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:41:11 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:42:23 IST</t>
+  </si>
+  <si>
+    <t>71994 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  599']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:64088}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 7d9114791ae3759f0d6c47121aeb1f32
+*** Element info: {Using=xpath, value=//strong[text()='?  599']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:42:35 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:43:43 IST</t>
+  </si>
+  <si>
+    <t>68080 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsScooter</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  599']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:64233}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 50ffa2952723ceec37f4f97e79a0606a
+*** Element info: {Using=xpath, value=//strong[text()='?  599']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:43:55 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:45:06 IST</t>
+  </si>
+  <si>
+    <t>70386 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsPremiumBike</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,099']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:64408}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 1a45e0b67954784be9dea1bf6c824ca4
+*** Element info: {Using=xpath, value=//strong[text()='?  1,099']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:45:26 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:46:37 IST</t>
+  </si>
+  <si>
+    <t>71011 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  6,699']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:64572}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 17cf83e55bd245f13d8de710c43408f7
+*** Element info: {Using=xpath, value=//strong[text()='?  6,699']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:46:50 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:47:59 IST</t>
+  </si>
+  <si>
+    <t>69103 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsIndependent</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:64729}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 6c4a7238a27fd5bb0b38f073cfea29d8
+*** Element info: {Using=xpath, value=//strong[text()='?  1,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:48:11 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:49:22 IST</t>
+  </si>
+  <si>
+    <t>71082 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsBungalow</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:64873}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 7719e271c152d6f0448ab2eb7c62730e
+*** Element info: {Using=xpath, value=//strong[text()='?  1,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:49:32 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:50:42 IST</t>
+  </si>
+  <si>
+    <t>69548 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsFlat</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:65009}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: bd4efbeb272da9d77cd265208d941baf
+*** Element info: {Using=xpath, value=//strong[text()='?  1,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:50:53 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:52:03 IST</t>
+  </si>
+  <si>
+    <t>70519 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsVilla</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:65159}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 5f7240d759c1a9c5e656a72a01a1e692
+*** Element info: {Using=xpath, value=//strong[text()='?  1,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:52:14 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:53:26 IST</t>
+  </si>
+  <si>
+    <t>71403 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsPenthouse</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:65290}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 3efac5c1b320c14a9e1b8ae0bbb90681
+*** Element info: {Using=xpath, value=//strong[text()='?  1,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:53:38 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:54:49 IST</t>
+  </si>
+  <si>
+    <t>70818 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHomeAsFarmhouse</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  1,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:65459}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 961ffadc11e151f55383a42bba79edb6
+*** Element info: {Using=xpath, value=//strong[text()='?  1,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:55:00 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:56:09 IST</t>
+  </si>
+  <si>
+    <t>69007 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOfficeAsIndependentBuilding</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[text()='?3000']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:49218}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: d836ffd97217cc34e490c2a07ddca2df
+*** Element info: {Using=xpath, value=//span[text()='?3000']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:56:43 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:58:02 IST</t>
+  </si>
+  <si>
+    <t>79173 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOfficeAsHighRiseBuilding</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[text()='?3000']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:49390}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: f851f07f58f7e7aa0fea8a5cd64d27fe
+*** Element info: {Using=xpath, value=//span[text()='?3000']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:58:37 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:59:55 IST</t>
+  </si>
+  <si>
+    <t>77763 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForOfficeAsCoWorkingSpace</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[text()='?3000']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:49557}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 231e7e7b5be7902f334dc795893a7d93
+*** Element info: {Using=xpath, value=//span[text()='?3000']}</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:00:26 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:01:37 IST</t>
+  </si>
+  <si>
+    <t>70812 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHeavyTransportAsPlane</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  4,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:49747}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: ac5a7f515bf740af7c1dcf9d2ce2bb5c
+*** Element info: {Using=xpath, value=//strong[text()='?  4,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:01:51 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:03:01 IST</t>
+  </si>
+  <si>
+    <t>69415 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHeavyTransportAsHelicopter</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  4,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:49893}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: fb07832b4ffdf3e80f0d088f1fc1db69
+*** Element info: {Using=xpath, value=//strong[text()='?  4,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:03:13 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:04:22 IST</t>
+  </si>
+  <si>
+    <t>69304 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.BuyGermShieldServiceTest.buyGermShieldForHeavyTransportAsTrain</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='?  4,500']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:50030}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 3e3b9bc466754fce9c55ecf9ae8b8dc4
+*** Element info: {Using=xpath, value=//strong[text()='?  4,500']}</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:04:33 IST</t>
+  </si>
+  <si>
+    <t>2020-09-15T00:06:20 IST</t>
+  </si>
+  <si>
+    <t>106857 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.UserLoginTest.franchiseLoginValidation</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//li[@class='main-heading']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:56414}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 9893f238aa531836c869858c320a74e5
+*** Element info: {Using=xpath, value=//li[@class='main-heading']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:54:05 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:54:44 IST</t>
+  </si>
+  <si>
+    <t>39371 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.UserRegistrationTest.registerAsProSeller</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[text()='Proceed']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:56802}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 19b347eb9ae0eae007ca8ff4aec13662
+*** Element info: {Using=xpath, value=//a[text()='Proceed']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:57:31 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:58:25 IST</t>
+  </si>
+  <si>
+    <t>53468 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsNewCar</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//select[@name='tab']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:56905}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: f7bcecbed4c33bb851f6ef84922c3293
+*** Element info: {Using=xpath, value=//select[@name='tab']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:58:36 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:59:09 IST</t>
+  </si>
+  <si>
+    <t>32869 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsNewMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:59:22 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:00:03 IST</t>
+  </si>
+  <si>
+    <t>41107 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsNewTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:00:14 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:00:54 IST</t>
+  </si>
+  <si>
+    <t>39869 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsUsedMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:01:07 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:01:47 IST</t>
+  </si>
+  <si>
+    <t>39789 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsUsedScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:02:00 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:02:39 IST</t>
+  </si>
+  <si>
+    <t>39451 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithVehicleAsUsedTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:02:51 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:03:30 IST</t>
+  </si>
+  <si>
+    <t>39414 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:03:43 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:04:16 IST</t>
+  </si>
+  <si>
+    <t>33450 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:04:29 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:05:03 IST</t>
+  </si>
+  <si>
+    <t>34181 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:05:14 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:05:48 IST</t>
+  </si>
+  <si>
+    <t>34074 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsNewTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:06:02 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:06:36 IST</t>
+  </si>
+  <si>
+    <t>33977 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:06:48 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:07:21 IST</t>
+  </si>
+  <si>
+    <t>32871 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:07:32 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:08:06 IST</t>
+  </si>
+  <si>
+    <t>33893 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:08:18 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:08:52 IST</t>
+  </si>
+  <si>
+    <t>33804 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatAlreadyRegisteredBuyerAsUsedTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:09:48 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:10:22 IST</t>
+  </si>
+  <si>
+    <t>34444 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithAutoloanAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:10:37 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:11:05 IST</t>
+  </si>
+  <si>
+    <t>28196 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithAutoloanAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[@id='entryModal']//button (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:11:43 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:12:45 IST</t>
+  </si>
+  <si>
+    <t>62678 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithAutoloanAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:13:18 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:13:47 IST</t>
+  </si>
+  <si>
+    <t>28611 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithAutoloanAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:15:08 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:15:21 IST</t>
+  </si>
+  <si>
+    <t>12235 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithoutAutoloanAsCar</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>unknown error: failed to change window state to 'normal', current state is 'maximized'
+    <t>unknown error: net::ERR_CONNECTION_TIMED_OUT
   (Session info: chrome=85.0.4183.102)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'LAPTOP-64JMFN9V', ip: '192.168.0.103', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:61106}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
-Session ID: 826e961f7e4bfbd41873ed240bba8bda</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:22:31 IST</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:58756}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 4845018361eafb8709cc2d1e52d9c8ff</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:15:49 IST</t>
   </si>
   <si>
     <t>0 ms</t>
   </si>
   <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBike</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:22:45 IST</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsPremiumBike</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:22:59 IST</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForAutomobileAsBus</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:23:14 IST</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForHomeAsVilla</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:23:26 IST</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.BuyGermShieldServiceTest.buyGermShieldForOfficeAsIndependentBuilding</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:23:43 IST</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.ValidatingFranchiseMyOrdersAsElevatorGermShield</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:14:31 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:15:08 IST</t>
-  </si>
-  <si>
-    <t>36826 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsAutomobileGermShield</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:15:21 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:16:17 IST</t>
-  </si>
-  <si>
-    <t>55221 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsJumpstartService</t>
-  </si>
-  <si>
-    <t>did not expect to find [true] but found [false]</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:16:31 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:16:58 IST</t>
-  </si>
-  <si>
-    <t>27082 ms</t>
-  </si>
-  <si>
-    <t>com.droom.automation.droomweb.droomweb_prod.FranchiseTest.RegisteringBuyerAsBigTransport</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:17:11 IST</t>
-  </si>
-  <si>
-    <t>2020-09-11T18:17:54 IST</t>
-  </si>
-  <si>
-    <t>42972 ms</t>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithoutAutoloanAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>unknown error: net::ERR_CONNECTION_TIMED_OUT
+  (Session info: chrome=85.0.4183.102)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:58789}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 1f37d6c068c1e8391b3c2da858903fc5</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:16:37 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithoutAutoloanAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:16:49 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithLoanAndInsuranceWithoutAutoloanAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:17:01 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:17:12 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:17:23 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:17:35 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validatSubmitRequirementAsBuyWithCertificationServicesAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:17:46 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRegistrationTransferServiceAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:17:57 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRegistrationTransferServiceAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:18:11 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRegistrationTransferServiceAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:18:25 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRegistrationTransferServiceAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:18:39 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRepairAndMaintenanceAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:18:51 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRepairAndMaintenanceAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:19:02 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRepairAndMaintenanceAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:19:13 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRepairAndMaintenanceAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:19:25 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:19:38 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:19:48 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:20:00 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsWarrantyAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:20:21 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:20:36 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:21:27 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsScooter</t>
+  </si>
+  <si>
+    <t>unknown error: net::ERR_CONNECTION_TIMED_OUT
+  (Session info: chrome=85.0.4183.102)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:60177}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 55b7fd9e90550d669fd7ba9c8e45a695</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:22:16 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsRoadSideAssistanceAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:23:04 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:23:53 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:24:41 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:25:09 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsDentingAndPaintingAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:25:57 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:26:30 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsMotorCycleOrBike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:26:45 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:26:56 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementWithBuyAutomobileServicesAsCarCareAndDetailingAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:27:07 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellAsLoggedInUserWithVehiclesAsBus</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:27:20 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellWithVehiclesAsBus</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:27:32 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellAsLoggedInUserWithVehiclesAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:27:43 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellWithVehiclesAsCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:27:54 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellAsLoggedInUserWithVehiclesAsMotorcycle_Bike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:28:05 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellWithVehiclesAsMotorcycle_Bike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:28:24 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellAsLoggedInUserWithVehiclesAsPremium_SuperCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:28:35 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellWithVehiclesAsPremium_SuperCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:28:47 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellAsLoggedInUserWithVehiclesAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:28:58 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellWithVehiclesAsScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:29:10 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellAsLoggedInUserWithVehiclesAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:29:21 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSellWithVehiclesAsTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:29:33 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateLoanAndInsuranceAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:29:44 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateCertifactionServicesAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:29:56 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateAutomobileServicesAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:30:08 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateEverythingElseAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:30:20 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithNewCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:31:00 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithNewMotercycle_Bike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:31:12 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithNewScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:32:24 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithNewTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:32:42 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithUsedCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:33:01 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithUsedMotercycle_Bike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:33:12 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithUsedScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:33:22 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeWithUsedTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:33:34 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithNewCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:33:45 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalByRegisteringWithAerialRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:33:56 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalByRegisteringWithBikeRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:34:08 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalByRegisteringWithCarRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:34:21 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalByRegisteringWithYatchRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:34:32 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalWithAerialRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:34:44 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalWithBikeRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:34:55 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalWithCarRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:35:08 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsRentalWithYatchRentals</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:35:21 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithNewMotercycle_Bike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:35:33 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithNewScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:35:44 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithNewTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:35:55 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithUsedCar</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:36:06 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithUsedMotercycle_Bike</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:36:18 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithUsedScooter</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:36:29 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.SubmitRequirementTest.validateSubmitRequirementAsExchangeByRegisteringWithUsedTaxi</t>
+  </si>
+  <si>
+    <t>2020-09-14T23:36:40 IST</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.CreateListingTest.createNormalListingAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[text()='Create Listing']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:56516}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 1e5eadf35e10560a05d36ddcdd384ddc
+*** Element info: {Using=xpath, value=//a[text()='Create Listing']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:54:56 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:55:37 IST</t>
+  </si>
+  <si>
+    <t>41308 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.CreateListingTest.createPremiumListingAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[text()='Create Listing']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:56608}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 84501264d73bde112d49778aceeb4016
+*** Element info: {Using=xpath, value=//a[text()='Create Listing']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:55:50 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:56:29 IST</t>
+  </si>
+  <si>
+    <t>38991 ms</t>
+  </si>
+  <si>
+    <t>com.droom.automation.droomweb.droomweb_qa.CreateListingTest.createConciergeListingAsLoggedInUser</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[text()='Create Listing']"}
+  (Session info: chrome=85.0.4183.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAPTOP-64JMFN9V', ip: '172.17.17.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 85.0.4183.102, chrome: {chromedriverVersion: 85.0.4183.87 (cd6713ebf92fa..., userDataDir: C:\Users\Honey\AppData\Loca...}, goog:chromeOptions: {debuggerAddress: localhost:56706}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: b7c18d0746e7e8df7f6c8e1c9a0f106a
+*** Element info: {Using=xpath, value=//a[text()='Create Listing']}</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:56:40 IST</t>
+  </si>
+  <si>
+    <t>2020-09-14T22:57:20 IST</t>
+  </si>
+  <si>
+    <t>39819 ms</t>
   </si>
 </sst>
 </file>
@@ -382,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -415,60 +1588,180 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -481,6 +1774,72 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -488,6 +1847,462 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -548,7 +2363,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.89453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,18 +2439,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="147.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="204.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.89453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -683,259 +2498,2399 @@
         <v>25</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="E3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="F3" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="F4" s="42" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="F6" s="54" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>46</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="67" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="73" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="79" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="85" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="91" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="97" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D14" s="100" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="103" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B15" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="120" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="144" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="151" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="162" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="163" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="165" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="168" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="174" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="175" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="180" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="181" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="183" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="186" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="187" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="188" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="189" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="190" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="192" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="193" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="195" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="196" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="197" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="198" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="199" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C31" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>71</v>
+      <c r="D31" s="202" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="203" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="204" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="205" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="207" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="208" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="209" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="210" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="211" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="212" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="213" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="214" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="215" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="216" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="217" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="219" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="220" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="221" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="222" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="224" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="225" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="226" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="228" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="229" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="231" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="232" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="233" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="234" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="235" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="236" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="237" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="239" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="240" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="244" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="245" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="246" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="247" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="249" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="250" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="251" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="252" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="253" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="255" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="256" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="257" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="258" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="259" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="261" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="262" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="263" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="264" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="265" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="267" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="268" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="269" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="270" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="271" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="272" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="274" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="275" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="276" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="277" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="278" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="280" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="281" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="282" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="283" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="284" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="285" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="286" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="287" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="288" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="289" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="290" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="291" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="292" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="293" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="294" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="295" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="297" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="298" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="299" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="300" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="301" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="302" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="303" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="304" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="305" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="306" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="307" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="308" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="309" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="310" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="311" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="312" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="313" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="314" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="315" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="316" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="317" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="318" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="319" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="320" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="321" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="322" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="323" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="324" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="325" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="326" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="327" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="328" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="329" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="330" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="331" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="332" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="333" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="334" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="335" t="s">
+        <v>246</v>
+      </c>
+      <c r="F53" s="336" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="337" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="338" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="339" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="340" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="341" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="342" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="343" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="344" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="345" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="346" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="347" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="348" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="349" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="350" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="351" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="352" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="353" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="354" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="355" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" s="356" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="357" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="358" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" s="359" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="360" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="361" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="362" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="363" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="364" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="365" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="366" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="367" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="368" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="369" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="370" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="371" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="372" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="373" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="374" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="375" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="376" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="377" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" s="378" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="379" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="380" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="381" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="382" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" s="383" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" s="384" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="385" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" s="386" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="387" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="388" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="389" t="s">
+        <v>264</v>
+      </c>
+      <c r="F62" s="390" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="391" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="392" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="393" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="394" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="395" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="396" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="397" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="398" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="399" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="400" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="401" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="402" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="403" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="404" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="405" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="406" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65" s="407" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="408" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="409" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="410" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="411" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="412" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="413" t="s">
+        <v>272</v>
+      </c>
+      <c r="F66" s="414" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="415" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="416" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="417" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="418" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="419" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="420" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="421" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="422" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="423" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="424" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" s="425" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="426" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="427" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="428" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="429" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="430" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" s="431" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="432" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="433" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="434" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="435" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" s="436" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="437" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" s="438" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="439" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="440" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="441" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="442" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="443" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" s="444" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="445" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="446" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="447" t="s">
+        <v>280</v>
+      </c>
+      <c r="D72" s="448" t="s">
+        <v>285</v>
+      </c>
+      <c r="E72" s="449" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="450" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="451" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="452" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="453" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="454" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="455" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="456" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="457" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" s="458" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="459" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="460" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74" s="461" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" s="462" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="463" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" s="464" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="465" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" s="466" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="467" t="s">
+        <v>291</v>
+      </c>
+      <c r="F75" s="468" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="469" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="470" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="471" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="472" t="s">
+        <v>293</v>
+      </c>
+      <c r="E76" s="473" t="s">
+        <v>293</v>
+      </c>
+      <c r="F76" s="474" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="475" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="476" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="477" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="478" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="479" t="s">
+        <v>295</v>
+      </c>
+      <c r="F77" s="480" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="481" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" s="482" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="483" t="s">
+        <v>280</v>
+      </c>
+      <c r="D78" s="484" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="485" t="s">
+        <v>297</v>
+      </c>
+      <c r="F78" s="486" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="487" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="488" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="489" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="490" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="491" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79" s="492" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="493" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="494" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="495" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="496" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="497" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="498" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="499" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="500" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="501" t="s">
+        <v>280</v>
+      </c>
+      <c r="D81" s="502" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="503" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="504" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="505" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="506" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="507" t="s">
+        <v>280</v>
+      </c>
+      <c r="D82" s="508" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" s="509" t="s">
+        <v>305</v>
+      </c>
+      <c r="F82" s="510" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="511" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" s="512" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="513" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="514" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" s="515" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83" s="516" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="517" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" s="518" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="519" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="520" t="s">
+        <v>309</v>
+      </c>
+      <c r="E84" s="521" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="522" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="523" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="524" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="525" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="526" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="527" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" s="528" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="529" t="s">
+        <v>312</v>
+      </c>
+      <c r="B86" s="530" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="531" t="s">
+        <v>280</v>
+      </c>
+      <c r="D86" s="532" t="s">
+        <v>313</v>
+      </c>
+      <c r="E86" s="533" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" s="534" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="535" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="536" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="537" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="538" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="539" t="s">
+        <v>315</v>
+      </c>
+      <c r="F87" s="540" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="541" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="542" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="543" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" s="544" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="545" t="s">
+        <v>317</v>
+      </c>
+      <c r="F88" s="546" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="547" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="548" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="549" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="550" t="s">
+        <v>319</v>
+      </c>
+      <c r="E89" s="551" t="s">
+        <v>319</v>
+      </c>
+      <c r="F89" s="552" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="553" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="554" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="555" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" s="556" t="s">
+        <v>321</v>
+      </c>
+      <c r="E90" s="557" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90" s="558" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="559" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" s="560" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="561" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" s="562" t="s">
+        <v>323</v>
+      </c>
+      <c r="E91" s="563" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91" s="564" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="565" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" s="566" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="567" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="568" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" s="569" t="s">
+        <v>325</v>
+      </c>
+      <c r="F92" s="570" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="571" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" s="572" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="573" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" s="574" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="575" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" s="576" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="577" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="578" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="579" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="580" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" s="581" t="s">
+        <v>329</v>
+      </c>
+      <c r="F94" s="582" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="583" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="584" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="585" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="586" t="s">
+        <v>331</v>
+      </c>
+      <c r="E95" s="587" t="s">
+        <v>331</v>
+      </c>
+      <c r="F95" s="588" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="589" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" s="590" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="591" t="s">
+        <v>280</v>
+      </c>
+      <c r="D96" s="592" t="s">
+        <v>333</v>
+      </c>
+      <c r="E96" s="593" t="s">
+        <v>333</v>
+      </c>
+      <c r="F96" s="594" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="595" t="s">
+        <v>334</v>
+      </c>
+      <c r="B97" s="596" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="597" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="598" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" s="599" t="s">
+        <v>335</v>
+      </c>
+      <c r="F97" s="600" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="601" t="s">
+        <v>336</v>
+      </c>
+      <c r="B98" s="602" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="603" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="604" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="605" t="s">
+        <v>337</v>
+      </c>
+      <c r="F98" s="606" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="607" t="s">
+        <v>338</v>
+      </c>
+      <c r="B99" s="608" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="609" t="s">
+        <v>280</v>
+      </c>
+      <c r="D99" s="610" t="s">
+        <v>339</v>
+      </c>
+      <c r="E99" s="611" t="s">
+        <v>339</v>
+      </c>
+      <c r="F99" s="612" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="613" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100" s="614" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" s="615" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="616" t="s">
+        <v>341</v>
+      </c>
+      <c r="E100" s="617" t="s">
+        <v>341</v>
+      </c>
+      <c r="F100" s="618" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="619" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="620" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="621" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="622" t="s">
+        <v>343</v>
+      </c>
+      <c r="E101" s="623" t="s">
+        <v>343</v>
+      </c>
+      <c r="F101" s="624" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="625" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="626" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" s="627" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="628" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="629" t="s">
+        <v>345</v>
+      </c>
+      <c r="F102" s="630" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="631" t="s">
+        <v>346</v>
+      </c>
+      <c r="B103" s="632" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="633" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="634" t="s">
+        <v>347</v>
+      </c>
+      <c r="E103" s="635" t="s">
+        <v>347</v>
+      </c>
+      <c r="F103" s="636" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="637" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" s="638" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="639" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="640" t="s">
+        <v>349</v>
+      </c>
+      <c r="E104" s="641" t="s">
+        <v>349</v>
+      </c>
+      <c r="F104" s="642" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="643" t="s">
+        <v>350</v>
+      </c>
+      <c r="B105" s="644" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="645" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" s="646" t="s">
+        <v>351</v>
+      </c>
+      <c r="E105" s="647" t="s">
+        <v>351</v>
+      </c>
+      <c r="F105" s="648" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="649" t="s">
+        <v>352</v>
+      </c>
+      <c r="B106" s="650" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="651" t="s">
+        <v>280</v>
+      </c>
+      <c r="D106" s="652" t="s">
+        <v>353</v>
+      </c>
+      <c r="E106" s="653" t="s">
+        <v>353</v>
+      </c>
+      <c r="F106" s="654" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="655" t="s">
+        <v>354</v>
+      </c>
+      <c r="B107" s="656" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="657" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="658" t="s">
+        <v>355</v>
+      </c>
+      <c r="E107" s="659" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" s="660" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="661" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" s="662" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="663" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" s="664" t="s">
+        <v>357</v>
+      </c>
+      <c r="E108" s="665" t="s">
+        <v>357</v>
+      </c>
+      <c r="F108" s="666" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="667" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" s="668" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="669" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="670" t="s">
+        <v>359</v>
+      </c>
+      <c r="E109" s="671" t="s">
+        <v>359</v>
+      </c>
+      <c r="F109" s="672" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="673" t="s">
+        <v>360</v>
+      </c>
+      <c r="B110" s="674" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="675" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="676" t="s">
+        <v>361</v>
+      </c>
+      <c r="E110" s="677" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110" s="678" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="679" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="680" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="681" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="682" t="s">
+        <v>363</v>
+      </c>
+      <c r="E111" s="683" t="s">
+        <v>363</v>
+      </c>
+      <c r="F111" s="684" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="685" t="s">
+        <v>364</v>
+      </c>
+      <c r="B112" s="686" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="687" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="688" t="s">
+        <v>365</v>
+      </c>
+      <c r="E112" s="689" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" s="690" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="691" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" s="692" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="693" t="s">
+        <v>280</v>
+      </c>
+      <c r="D113" s="694" t="s">
+        <v>367</v>
+      </c>
+      <c r="E113" s="695" t="s">
+        <v>367</v>
+      </c>
+      <c r="F113" s="696" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="697" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" s="698" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="699" t="s">
+        <v>280</v>
+      </c>
+      <c r="D114" s="700" t="s">
+        <v>369</v>
+      </c>
+      <c r="E114" s="701" t="s">
+        <v>369</v>
+      </c>
+      <c r="F114" s="702" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="703" t="s">
+        <v>370</v>
+      </c>
+      <c r="B115" s="704" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="705" t="s">
+        <v>280</v>
+      </c>
+      <c r="D115" s="706" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="707" t="s">
+        <v>371</v>
+      </c>
+      <c r="F115" s="708" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="709" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" s="710" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="711" t="s">
+        <v>280</v>
+      </c>
+      <c r="D116" s="712" t="s">
+        <v>373</v>
+      </c>
+      <c r="E116" s="713" t="s">
+        <v>373</v>
+      </c>
+      <c r="F116" s="714" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="715" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117" s="716" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="717" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117" s="718" t="s">
+        <v>375</v>
+      </c>
+      <c r="E117" s="719" t="s">
+        <v>375</v>
+      </c>
+      <c r="F117" s="720" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="721" t="s">
+        <v>376</v>
+      </c>
+      <c r="B118" s="722" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="723" t="s">
+        <v>280</v>
+      </c>
+      <c r="D118" s="724" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="725" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="726" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="727" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" s="728" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="729" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="730" t="s">
+        <v>379</v>
+      </c>
+      <c r="E119" s="731" t="s">
+        <v>379</v>
+      </c>
+      <c r="F119" s="732" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="733" t="s">
+        <v>380</v>
+      </c>
+      <c r="B120" s="734" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="735" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" s="736" t="s">
+        <v>382</v>
+      </c>
+      <c r="E120" s="737" t="s">
+        <v>383</v>
+      </c>
+      <c r="F120" s="738" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="739" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" s="740" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="741" t="s">
+        <v>386</v>
+      </c>
+      <c r="D121" s="742" t="s">
+        <v>387</v>
+      </c>
+      <c r="E121" s="743" t="s">
+        <v>388</v>
+      </c>
+      <c r="F121" s="744" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="745" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" s="746" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="747" t="s">
+        <v>391</v>
+      </c>
+      <c r="D122" s="748" t="s">
+        <v>392</v>
+      </c>
+      <c r="E122" s="749" t="s">
+        <v>393</v>
+      </c>
+      <c r="F122" s="750" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
